--- a/biology/Zoologie/Hocco_de_Daubenton/Hocco_de_Daubenton.xlsx
+++ b/biology/Zoologie/Hocco_de_Daubenton/Hocco_de_Daubenton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crax daubentoni
 L’Hocco de Daubenton (Crax daubentoni ) est une espèce d'oiseaux de la famille des Cracidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 84 et 92 cm de longueur. Le mâle a des barbillons, un bec et un tubercule le surplombant d'un jaune vif. Le plumage est noir avec des reflets verdâtres sur le dos, tandis que le ventre est blanc. Les pattes sont bleu-noirs. La femelle est noire avec le ventre blanc, le bec sans tubercule est noir. Elle a une importante huppe de plumes bouclées.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Colombie et au Venezuela.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts galeries, les forêts humides à feuilles caduques et les savanes arborées jusqu'à 850 m d'altitude.
 </t>
